--- a/comparison_report.xlsx
+++ b/comparison_report.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Verify OrangeHRM Logo Position</t>
+          <t>Verify OrangeHRM Logo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Observe the position of the OrangeHRM logo.</t>
+          <t>Check the OrangeHRM logo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Logo positioned at the top left, as in Version A.</t>
+          <t>Logo should be present and identical to Version A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Logo positioned at the top left.</t>
+          <t>Logo is present and identical</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,22 +537,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Verify OrangeHRM Logo Image</t>
+          <t>Verify "OPEN SOURCE HR MANAGEMENT" text</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Observe the OrangeHRM logo image.</t>
+          <t>Check the text below the logo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Logo image identical to Version A.</t>
+          <t>Text should read "OPEN SOURCE HR MANAGEMENT" and be consistent with Version A's styling</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Logo image identical to Version A.</t>
+          <t>Text reads "OPEN SOURCE HR MANAGEMENT" and styling is consistent</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -569,27 +569,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Verify "Open Source HR Management" Text Position</t>
+          <t>Verify Header Text</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Observe the position of the "Open Source HR Management" text.</t>
+          <t>Check the main header text</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Text positioned below the OrangeHRM logo, aligned right, as in Version A.</t>
+          <t>Text should read "Login"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Text positioned below the OrangeHRM logo, aligned right.</t>
+          <t>Text reads "Sign-In"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Verify "Open Source HR Management" Text Content</t>
+          <t>Verify Username Label</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Observe the content of the "Open Source HR Management" text.</t>
+          <t>Check the label for the username input field</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Text reads "Open Source HR Management", as in Version A.</t>
+          <t>Label should be visually consistent with Version A (no icon, text only)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Text reads "Open Source HR Management".</t>
+          <t>Label includes a person icon</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -633,22 +633,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Verify "Open Source HR Management" Text Font</t>
+          <t>Verify Username Placeholder</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Observe the font of the "Open Source HR Management" text.</t>
+          <t>Check the placeholder text in the username input field</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Font type, size, weight, and color consistent with Version A.</t>
+          <t>Placeholder should read "Username"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Font type, size, weight, and color consistent with Version A.</t>
+          <t>Placeholder reads "Username"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Verify "Login" Heading Position</t>
+          <t>Verify Password Label</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Observe the position of the "Login" heading.</t>
+          <t>Check the label for the password input field</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Heading positioned below the logo and subtitle, centered, as in Version A.</t>
+          <t>Label should be visually consistent with Version A (no icon, text only)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Heading positioned below the logo and subtitle, centered.</t>
+          <t>Label includes a key icon</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -697,22 +697,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Verify "Login" Heading Text Content</t>
+          <t>Verify Password Placeholder</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Observe the "Login" heading text.</t>
+          <t>Check the placeholder text in the password input field</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Text reads "Login" as in Version A.</t>
+          <t>Placeholder should read "Password"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Text reads "Login".</t>
+          <t>Placeholder reads "Password"</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Verify "Login" Heading Font</t>
+          <t>Verify Password Field Masking</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Observe the font of the "Login" heading.</t>
+          <t>Check the password input field's behavior</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Font type, size, weight, and color consistent with Version A.</t>
+          <t>Entered text should appear masked with asterisks as in Version A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Font type, size, weight, and color consistent with Version A.</t>
+          <t>Entered text appears masked</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -761,27 +761,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Verify Username Field Label Position</t>
+          <t>Verify Login Button Text</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Observe the position of the Username field label.</t>
+          <t>Check the text on the login/submit button</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Label positioned above the Username field, left-aligned, as in Version A.</t>
+          <t>Text should read "Login"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Label positioned above the Username field, left-aligned.</t>
+          <t>Text reads "Sign In"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Verify Username Field Label Text</t>
+          <t>Verify Login Button Color</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Observe the Username field label text.</t>
+          <t>Check the color of the login/submit button</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Label reads "Username" with a user icon, as in Version A.</t>
+          <t>Color should be orange, consistent with Version A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Label reads "Username" with a user icon.</t>
+          <t>Color is red</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -825,22 +825,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Verify Username Field Label Font</t>
+          <t>Verify Background Color of the Login Section</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Observe the font of the Username field label.</t>
+          <t>Check the background color of the main login area</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Font type, size, weight, and color consistent with Version A.</t>
+          <t>Background color should be white/off-white, consistent with Version A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Font type, size, weight, and color consistent with Version A.</t>
+          <t>Background is white/off-white</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Verify Username Field Position</t>
+          <t>Verify presence of "HR for ALL" image/logo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Observe the position of the Username input field.</t>
+          <t>Check for the circular image on the left side of the screen</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Field positioned below the Username label, as in Version A.</t>
+          <t>Should display circular image with the text "HR for ALL" and orange graphic, identical to Version A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Field positioned below the Username label.</t>
+          <t>Image is not present</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -889,27 +889,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Verify Username Field Placeholder</t>
+          <t>Verify background color on right half of the screen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Observe the Username field placeholder.</t>
+          <t>Check background color</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Placeholder text reads "Username" as in Version A.</t>
+          <t>Should be orange, similar to the color surrounding "HR for ALL" graphic in Version A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Placeholder text reads "Username".</t>
+          <t>Background is red</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -921,27 +921,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Verify Username Field Styling</t>
+          <t>Verify "Forgot your password?" link</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Observe the styling of the Username input field (border, background, padding).</t>
+          <t>Check for the presence and style of the "Forgot your password?" link below the login button</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Styling (border, background, padding) consistent with Version A.</t>
+          <t>Link should not be present</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Styling (border, background, padding) consistent with Version A.</t>
+          <t>Link is present and red</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -953,27 +953,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Verify Password Field Label Position</t>
+          <t>Verify overall layout structure</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Observe the position of the Password field label.</t>
+          <t>Check the general arrangement of elements</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Label positioned above the Password field, left-aligned, as in Version A.</t>
+          <t>Two distinct sections (left and right) similar to Version A, but without the rounded dividers.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Label positioned above the Password field, left-aligned.</t>
+          <t>Two sections with different background colors. Red section on the right contains a white circle.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -985,377 +985,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Verify Password Field Label Text</t>
+          <t>Verify input field border style</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Observe the Password field label text.</t>
+          <t>Check the borders of the input fields</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Label reads "Password" with a key icon, as in Version A.</t>
+          <t>Input fields should have rounded grey border like in Version A</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Label reads "Password" with a key icon.</t>
+          <t>Input fields have rounded grey borders</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>TC_017</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Verify Password Field Label Font</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Observe the font of the Password field label.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Font type, size, weight, and color consistent with Version A.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Font type, size, weight, and color consistent with Version A.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>TC_018</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Verify Password Field Position</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Observe the position of the Password input field.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Field positioned below the Password label, as in Version A.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Field positioned below the Password label.</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>TC_019</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Verify Password Field Placeholder</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Observe the Password field placeholder.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Placeholder text reads "Password" as in Version A.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Placeholder text reads "Password".</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>TC_020</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Verify Password Field Styling</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Observe the styling of the Password input field (border, background, padding).</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Styling (border, background, padding) consistent with Version A.</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Styling (border, background, padding) consistent with Version A.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>TC_021</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Verify Login Button Position</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Observe the position of the Login button.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Button positioned below the Password field, centered, as in Version A.</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Button positioned below the Password field, centered.</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>TC_022</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Verify Login Button Text</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Observe the Login button text.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Button text reads "Login" as in Version A.</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Button text reads "Login".</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>TC_023</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Verify Login Button Styling</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Observe the styling of the Login button (color, border, padding, font).</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Styling (color, border, padding, font) consistent with Version A.</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Styling (color, border, padding, font) consistent with Version A.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>TC_024</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Verify Orange Graphic Position</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Observe the position of the orange graphic.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Graphic positioned on the right side, as in Version A.</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Graphic positioned on the right side.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>TC_025</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Verify Orange Graphic Image</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Observe the orange graphic image.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Graphic image identical to Version A (orange with leaf, "HR for ALL" text).</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Graphic image identical to Version A.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>TC_026</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Verify Overall Page Background Color</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Observe the overall background color of the page.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Background color consistent with Version A (white and orange).</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Background color consistent with Version A.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>TC_027</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Verify Login Form Background Color</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Observe the background color of the login form area.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Background color consistent with Version A (light grey).</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Background color consistent with Version A.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
